--- a/P.xlsx
+++ b/P.xlsx
@@ -8,14 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tiiag\Desktop\Tiago 2\Progamas\Projetos\Projetos\Python\PhotoCollage_AnimeCharacters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D309ED-898B-4C7D-B8D0-6537CF42D776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8472C3F-A914-41EE-A0E3-C3CCB000E1E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
-    <sheet name="Plan2" sheetId="2" r:id="rId2"/>
-    <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Id_Anilist</t>
   </si>
@@ -53,7 +51,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -61,197 +59,18 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -269,26 +88,6 @@
   <autoFilter ref="A1:A5" xr:uid="{2701C033-5920-4E97-BAAE-15AC8B724FBE}"/>
   <tableColumns count="1">
     <tableColumn id="2" xr3:uid="{4057381D-0F98-445B-9612-AAFBAC53FF49}" name="Id_Anilist"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FEE7201A-D6B1-4570-8D0B-0A99B1F71AE5}" name="Tabela2" displayName="Tabela2" ref="A1:A5" totalsRowShown="0" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="A1:A5" xr:uid="{FEE7201A-D6B1-4570-8D0B-0A99B1F71AE5}"/>
-  <tableColumns count="1">
-    <tableColumn id="2" xr3:uid="{E2A993CA-9C95-4FD6-BE41-9AB5A0234958}" name="Id_Anilist" dataDxfId="5"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C99FD73A-7CF2-4E18-9F17-7E7BD8462A96}" name="Tabela24" displayName="Tabela24" ref="A1:A5" totalsRowShown="0" dataDxfId="3" headerRowBorderDxfId="4" tableBorderDxfId="2" totalsRowBorderDxfId="1">
-  <autoFilter ref="A1:A5" xr:uid="{C99FD73A-7CF2-4E18-9F17-7E7BD8462A96}"/>
-  <tableColumns count="1">
-    <tableColumn id="2" xr3:uid="{A4657B43-5611-4F38-92E4-8B57FF6E6589}" name="Id_Anilist" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -559,7 +358,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -571,7 +370,7 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
     </row>
@@ -596,93 +395,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F8B3FF6-DF96-4A02-B881-46453F841C50}">
-  <dimension ref="A1:A5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>45</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04A5479A-89AA-4DD6-8FA0-1A8A05211222}">
-  <dimension ref="A1:A5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>400</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
 </file>